--- a/Diagramy/SWOT.xlsx
+++ b/Diagramy/SWOT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e855b39a1ac1675/Plocha/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarda\Documents\GitHub\Swinz_Blecha_Panzenberger_repository\Diagramy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{516FEF9F-360B-460C-AE45-969F881D1283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3A919-64C5-4875-AF1C-1332996DCF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1D05045-38CF-4DB7-9EC0-93154DFBA9DD}"/>
   </bookViews>
@@ -47,18 +47,6 @@
     <t>Hrozby</t>
   </si>
   <si>
-    <t>Stálí zákazníci</t>
-  </si>
-  <si>
-    <t>Zakoupení softwaru</t>
-  </si>
-  <si>
-    <t>Poloha</t>
-  </si>
-  <si>
-    <t>Rozšíření rozhledu dodavatelů</t>
-  </si>
-  <si>
     <t>Rozlišnost metod zaměstnanců - určit jednotný postup</t>
   </si>
   <si>
@@ -77,44 +65,88 @@
     <t>Nevýhodné smlouvy - srovnávání cen na trhu</t>
   </si>
   <si>
-    <t>schopnost zaměstnanců</t>
-  </si>
-  <si>
-    <t>Kvalitní aparatura</t>
-  </si>
-  <si>
-    <t>Dobrá morálka mezi zaměstnanci</t>
-  </si>
-  <si>
     <t>Zaměstnanci neznají novější technologie - poskytnutí školení zaměstnancům, či vyhledání nových zaměstnanců</t>
   </si>
   <si>
     <t>Odchod zaměstnanců za lepší nabídkou - zvýšení ohodnocení a udržení dobré morálky</t>
   </si>
   <si>
-    <t>Přístupnost informací k řešení problémů</t>
-  </si>
-  <si>
-    <t>Vývoj eshopu</t>
-  </si>
-  <si>
-    <t>Dostupné prostory v okolí</t>
-  </si>
-  <si>
     <t>Budova je v horším stavu - rekonstrukce</t>
   </si>
   <si>
     <t>Neschopnost zákazníků dobře specifikovat problém - Vyžadování specifikace pomocí formuláře</t>
+  </si>
+  <si>
+    <t>Stálý zákazníci- benefity/odměny za věrnost</t>
+  </si>
+  <si>
+    <t>schopnost zaměstnanců- nabídka dalších školení k jejich rozvoji</t>
+  </si>
+  <si>
+    <t>Kvalitní aparatura- sledovat novinky na trhu</t>
+  </si>
+  <si>
+    <t>Dobrá morálka mezi zaměstnanci- sledovat a udržovat dobré vztahy mezi zaměstnanci</t>
+  </si>
+  <si>
+    <t>Vývoj eshopu- vylepšovat design/jednoduché třízení produktů</t>
+  </si>
+  <si>
+    <t>Dostupné prostory v okolí- zhodnotit jejich cenu a možnosti využití</t>
+  </si>
+  <si>
+    <t>Poloha- udržování vzhledu budovy/okolí</t>
+  </si>
+  <si>
+    <t>Přístupnost informací k řešení problémů- využití volně přístupných informací na rozšíření knowhow</t>
+  </si>
+  <si>
+    <t>Zakoupení softwaru- využití softwaru k automatizaci</t>
+  </si>
+  <si>
+    <t>Rozšíření rozhledu dodavatelů- prozkoumávat trh/nabídky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -165,12 +197,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -488,23 +524,26 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3"/>
@@ -520,14 +559,14 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -542,14 +581,14 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -564,14 +603,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -586,14 +625,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -608,14 +647,14 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -628,15 +667,15 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="4"/>
@@ -652,14 +691,14 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -674,14 +713,14 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -696,14 +735,14 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -718,14 +757,14 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -740,14 +779,14 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -762,5 +801,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>